--- a/TD_Tarasevich(Wildberries).xlsx
+++ b/TD_Tarasevich(Wildberries).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="278">
   <si>
     <t>ID</t>
   </si>
@@ -666,9 +666,6 @@
     <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Беларуси</t>
   </si>
   <si>
-    <t>Сайт должен быть полность локализирован для России</t>
-  </si>
-  <si>
     <t>Сайт должен быть полность локализирован для Узбекистана</t>
   </si>
   <si>
@@ -693,21 +690,6 @@
     <t>Сайт полностью локализирован для Узбекистана</t>
   </si>
   <si>
-    <t>Сайт должен быть полностью локализирован для Киргизии</t>
-  </si>
-  <si>
-    <t>Сайт должен быть полностью локализирован для Казахстана</t>
-  </si>
-  <si>
-    <t>Сайт должен быть полностью локализирован для Израиля</t>
-  </si>
-  <si>
-    <t>Сайт должен быть полностью локализирован для Армении</t>
-  </si>
-  <si>
-    <t>Сайт должен быть полностью локализирован для Беларуси</t>
-  </si>
-  <si>
     <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Армения"</t>
   </si>
   <si>
@@ -756,12 +738,6 @@
     <t>Отзывчивость сайта</t>
   </si>
   <si>
-    <t>Браузер должен открыть начальную страницу сайта при хорошем соединении к интернету</t>
-  </si>
-  <si>
-    <t>Браузер должен открыть начальную страницу сайта при слабом сигнале интернета</t>
-  </si>
-  <si>
     <t>Precondition</t>
   </si>
   <si>
@@ -780,9 +756,6 @@
     <t>1)URL открыт                                                                   2)Сайт перезагрузился за 4.32 s</t>
   </si>
   <si>
-    <t xml:space="preserve">Браузер не должен открыть начальную страницу сайта при отсутствии подключения к интернету </t>
-  </si>
-  <si>
     <t>1)Появляется сообщение: Нет подключения к Интернету                                                                2)Появляется сообщение: Нет подключения к Интернету</t>
   </si>
   <si>
@@ -1534,6 +1507,42 @@
   </si>
   <si>
     <t>Open URL: https://by.wildberries.ru/</t>
+  </si>
+  <si>
+    <t>Браузер открывает начальную страницу сайта при хорошем соединении к интернету</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Браузер не открывает начальную страницу сайта при отсутствии подключения к интернету </t>
+  </si>
+  <si>
+    <t>Сайт полность локализирован для России</t>
+  </si>
+  <si>
+    <t>Сайт полность локализирован для Узбекистана</t>
+  </si>
+  <si>
+    <t>Браузер открывает начальную страницу сайта при слабом сигнале интернета</t>
+  </si>
+  <si>
+    <t>B_FUN_1</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>При авторизации сайт требует прохождение аутентификации, при повторной авторизации на сайте после выхода с учетной записи и закрытия браузера сайт требует проходжение аутентификации</t>
+  </si>
+  <si>
+    <t>1)Нажать на поле "Войти"                                 2)Контактный телефон введен, нажать на поле "Войти"                                                                         3)Ввести код подтвежления пользователя            4)Нажать на поле "Профиль"                             5)Нажать на поле "Выйти"                             6)Закрыть браузер                                               7)Открыть браузер                                                 8)Нажать на поле "Войти"                                  9)Контактный телефон введен, нажать на поле "Войти"                                                                          10)Ввести код подтверждения пользователя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации                                   2)Получаем код подтверждения на мобильное устройство                                                                                  3)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем                      4)Сайт перенаправляет на страницу учетной записи пользователя                                                                                5)Сайт открывает начальную страницу сайта с не авторизованным пользователем                                    8)Сайт перенаправляет на страницу авторизации                                   9)Получаем код подтверждения на мобильное устройство                                                                                  10)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации                                                              2)Получаем код подтверждения на мобильное устройство                                                                                  3)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем                                                             4)Сайт перенаправляет на страницу учетной записи пользователя                                                                                5)Сайт открывает начальную страницу сайта с не авторизованным пользователем                                    8)Сайт перенаправляет на страницу авторизации                                                                   9)Сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1734,29 +1743,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1814,6 +1805,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2651,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2678,12 +2690,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2695,7 +2707,7 @@
       <c r="C3" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2709,7 +2721,7 @@
       <c r="C4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2723,7 +2735,7 @@
       <c r="C5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2737,17 +2749,17 @@
       <c r="C6" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2759,7 +2771,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2773,7 +2785,7 @@
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2787,7 +2799,7 @@
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2801,7 +2813,7 @@
       <c r="C11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2815,7 +2827,7 @@
       <c r="C12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2829,7 +2841,7 @@
       <c r="C13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2843,7 +2855,7 @@
       <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2857,7 +2869,7 @@
       <c r="C15" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2871,7 +2883,7 @@
       <c r="C16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2885,7 +2897,7 @@
       <c r="C17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2899,7 +2911,7 @@
       <c r="C18" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2913,7 +2925,7 @@
       <c r="C19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2927,7 +2939,7 @@
       <c r="C20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2941,7 +2953,7 @@
       <c r="C21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2955,7 +2967,7 @@
       <c r="C22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2969,7 +2981,7 @@
       <c r="C23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2983,7 +2995,7 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2997,7 +3009,7 @@
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3011,7 +3023,7 @@
       <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3025,7 +3037,7 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3039,7 +3051,7 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3053,7 +3065,7 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3067,7 +3079,7 @@
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3081,7 +3093,7 @@
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3095,7 +3107,7 @@
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3109,7 +3121,7 @@
       <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3123,7 +3135,7 @@
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3137,29 +3149,29 @@
       <c r="C35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="29" t="s">
         <v>194</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D37" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3171,9 +3183,9 @@
         <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3185,9 +3197,9 @@
         <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3199,9 +3211,9 @@
         <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3213,9 +3225,9 @@
         <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3227,7 +3239,7 @@
         <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>50</v>
@@ -3241,9 +3253,9 @@
         <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3257,7 +3269,7 @@
       <c r="C44" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3271,7 +3283,7 @@
       <c r="C45" t="s">
         <v>208</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3285,7 +3297,7 @@
       <c r="C46" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3299,7 +3311,7 @@
       <c r="C47" t="s">
         <v>210</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3318,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:K36"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3368,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3372,22 +3384,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -3412,12 +3424,12 @@
       <c r="I3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -3442,12 +3454,12 @@
       <c r="I4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -3472,12 +3484,12 @@
       <c r="I5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3502,7 +3514,7 @@
       <c r="I6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="27" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -3510,7 +3522,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -3535,12 +3547,12 @@
       <c r="I7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3565,7 +3577,7 @@
       <c r="I8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="27" t="s">
         <v>50</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -3573,7 +3585,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -3598,7 +3610,7 @@
       <c r="I9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="27" t="s">
         <v>50</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -3606,7 +3618,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -3631,12 +3643,12 @@
       <c r="I10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -3661,12 +3673,12 @@
       <c r="I11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -3691,12 +3703,12 @@
       <c r="I12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -3721,12 +3733,12 @@
       <c r="I13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -3751,12 +3763,12 @@
       <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3781,12 +3793,12 @@
       <c r="I15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="19" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3811,12 +3823,12 @@
       <c r="I16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3841,12 +3853,12 @@
       <c r="I17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3871,12 +3883,12 @@
       <c r="I18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3901,12 +3913,12 @@
       <c r="I19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="19" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -3931,12 +3943,12 @@
       <c r="I20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="19" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3961,12 +3973,12 @@
       <c r="I21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -3991,12 +4003,12 @@
       <c r="I22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -4021,12 +4033,12 @@
       <c r="I23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -4051,12 +4063,12 @@
       <c r="I24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -4081,12 +4093,12 @@
       <c r="I25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -4111,12 +4123,12 @@
       <c r="I26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -4141,12 +4153,12 @@
       <c r="I27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -4171,12 +4183,12 @@
       <c r="I28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -4201,12 +4213,12 @@
       <c r="I29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -4231,7 +4243,7 @@
       <c r="I30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="27" t="s">
         <v>50</v>
       </c>
       <c r="K30" s="13" t="s">
@@ -4239,77 +4251,77 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="22" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="29" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="22" t="s">
         <v>164</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4320,7 +4332,7 @@
       <c r="B34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="22" t="s">
         <v>163</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -4329,17 +4341,17 @@
       <c r="E34" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="29" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="28" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4350,7 +4362,7 @@
       <c r="B35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="22" t="s">
         <v>180</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -4359,17 +4371,17 @@
       <c r="E35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="29" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="28" t="s">
         <v>50</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -4377,25 +4389,25 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -4407,17 +4419,17 @@
       <c r="E37" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="29" t="s">
+      <c r="F37" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="31" t="s">
         <v>213</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -4428,7 +4440,7 @@
       <c r="A38" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -4440,17 +4452,17 @@
       <c r="E38" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="J38" s="37" t="s">
+      <c r="F38" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="31" t="s">
         <v>213</v>
       </c>
       <c r="K38" s="4" t="s">
@@ -4461,7 +4473,7 @@
       <c r="A39" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -4473,17 +4485,17 @@
       <c r="E39" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="39" t="s">
+      <c r="F39" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="33" t="s">
         <v>213</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -4494,7 +4506,7 @@
       <c r="A40" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -4506,17 +4518,17 @@
       <c r="E40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="J40" s="39" t="s">
+      <c r="F40" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="33" t="s">
         <v>213</v>
       </c>
       <c r="K40" s="4" t="s">
@@ -4527,7 +4539,7 @@
       <c r="A41" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -4539,17 +4551,17 @@
       <c r="E41" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="J41" s="39" t="s">
+      <c r="F41" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="33" t="s">
         <v>213</v>
       </c>
       <c r="K41" s="4" t="s">
@@ -4560,7 +4572,7 @@
       <c r="A42" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -4572,17 +4584,17 @@
       <c r="E42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="J42" s="31" t="s">
+      <c r="F42" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>50</v>
       </c>
       <c r="K42" s="4" t="s">
@@ -4593,7 +4605,7 @@
       <c r="A43" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -4605,32 +4617,32 @@
       <c r="E43" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="J43" s="39" t="s">
+      <c r="F43" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="33" t="s">
         <v>213</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>46</v>
@@ -4638,17 +4650,17 @@
       <c r="E44" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="J44" s="31" t="s">
+      <c r="F44" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="J44" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4656,11 +4668,11 @@
       <c r="A45" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>46</v>
@@ -4668,19 +4680,19 @@
       <c r="E45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="J45" s="31" t="s">
+      <c r="F45" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="J45" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4688,11 +4700,11 @@
       <c r="A46" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>46</v>
@@ -4700,19 +4712,19 @@
       <c r="E46" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="J46" s="31" t="s">
+      <c r="F46" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4733,16 +4745,16 @@
         <v>47</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J47" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J47" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4760,10 +4772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,7 +4785,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="43.7109375" customWidth="1"/>
     <col min="10" max="10" width="43.5703125" customWidth="1"/>
@@ -4790,7 +4802,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4799,19 +4811,19 @@
         <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4824,14 +4836,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>258</v>
+      <c r="C2" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>186</v>
@@ -4839,26 +4851,26 @@
       <c r="E2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>229</v>
+      <c r="F2" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I2" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>212</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>214</v>
@@ -4868,11 +4880,11 @@
       <c r="A3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>258</v>
+      <c r="C3" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>186</v>
@@ -4880,26 +4892,26 @@
       <c r="E3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>228</v>
+      <c r="F3" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>214</v>
@@ -4909,11 +4921,11 @@
       <c r="A4" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>258</v>
+      <c r="C4" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>186</v>
@@ -4921,26 +4933,26 @@
       <c r="E4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>227</v>
+      <c r="F4" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="L4" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="23" t="s">
         <v>259</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>214</v>
@@ -4950,11 +4962,11 @@
       <c r="A5" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>258</v>
+      <c r="C5" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>186</v>
@@ -4962,26 +4974,26 @@
       <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>226</v>
+      <c r="F5" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>214</v>
@@ -4991,11 +5003,11 @@
       <c r="A6" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>258</v>
+      <c r="C6" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>186</v>
@@ -5003,26 +5015,26 @@
       <c r="E6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>225</v>
+      <c r="F6" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>214</v>
@@ -5032,11 +5044,11 @@
       <c r="A7" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>258</v>
+      <c r="C7" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>186</v>
@@ -5044,30 +5056,80 @@
       <c r="E7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>217</v>
+      <c r="F7" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="K7" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="L7" s="43" t="s">
-        <v>259</v>
+      <c r="I7" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>214</v>
       </c>
+    </row>
+    <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TD_Tarasevich(Wildberries).xlsx
+++ b/TD_Tarasevich(Wildberries).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="280">
   <si>
     <t>ID</t>
   </si>
@@ -243,9 +243,6 @@
     <t xml:space="preserve">Найти товар используя поле "Я ищу..." с использованием файла изображения </t>
   </si>
   <si>
-    <t xml:space="preserve">Найти товар используя поле "Я ищу..." с использованием  файла изображения </t>
-  </si>
-  <si>
     <t xml:space="preserve">Firefox              Version 101.0 </t>
   </si>
   <si>
@@ -1543,6 +1540,15 @@
   </si>
   <si>
     <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации                                                              2)Получаем код подтверждения на мобильное устройство                                                                                  3)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем                                                             4)Сайт перенаправляет на страницу учетной записи пользователя                                                                                5)Сайт открывает начальную страницу сайта с не авторизованным пользователем                                    8)Сайт перенаправляет на страницу авторизации                                                                   9)Сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
+  </si>
+  <si>
+    <t>Поиск товара используя поле "Я ищу..." с использованием ввода текста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск товара используя поле "Я ищу..." с использованием  файла изображения </t>
+  </si>
+  <si>
+    <t>Поиск товара используя "Каталог товаров"</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2691,7 +2697,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2699,13 +2705,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>50</v>
@@ -2716,10 +2722,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>50</v>
@@ -2727,13 +2733,13 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>50</v>
@@ -2741,13 +2747,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>50</v>
@@ -2808,10 +2814,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>50</v>
@@ -2822,10 +2828,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>50</v>
@@ -2836,10 +2842,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>50</v>
@@ -2850,10 +2856,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>50</v>
@@ -2864,10 +2870,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>50</v>
@@ -2875,13 +2881,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>50</v>
@@ -2889,13 +2895,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>50</v>
@@ -2903,13 +2909,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>50</v>
@@ -2917,13 +2923,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>50</v>
@@ -2931,13 +2937,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>50</v>
@@ -2945,13 +2951,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>50</v>
@@ -2959,13 +2965,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>50</v>
@@ -2973,13 +2979,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>50</v>
@@ -3113,7 +3119,7 @@
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>21</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>23</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>25</v>
@@ -3155,7 +3161,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -3163,83 +3169,83 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>50</v>
@@ -3247,27 +3253,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>50</v>
@@ -3275,13 +3281,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>50</v>
@@ -3289,13 +3295,13 @@
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>50</v>
@@ -3303,13 +3309,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>50</v>
@@ -3330,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3368,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3385,7 +3391,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -3415,7 +3421,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="4" t="s">
@@ -3445,7 +3451,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="4" t="s">
@@ -3538,7 +3544,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="4" t="s">
@@ -3568,11 +3574,11 @@
         <v>47</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>71</v>
@@ -3598,23 +3604,23 @@
         <v>46</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>50</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3622,26 +3628,26 @@
         <v>36</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>50</v>
@@ -3652,26 +3658,26 @@
         <v>37</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>50</v>
@@ -3682,26 +3688,26 @@
         <v>38</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>50</v>
@@ -3712,26 +3718,26 @@
         <v>39</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>50</v>
@@ -3742,26 +3748,26 @@
         <v>40</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>50</v>
@@ -3769,29 +3775,29 @@
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>50</v>
@@ -3799,29 +3805,29 @@
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>50</v>
@@ -3829,29 +3835,29 @@
     </row>
     <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>50</v>
@@ -3859,29 +3865,29 @@
     </row>
     <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>50</v>
@@ -3889,29 +3895,29 @@
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>50</v>
@@ -3919,29 +3925,29 @@
     </row>
     <row r="20" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="J20" s="27" t="s">
         <v>50</v>
@@ -3949,29 +3955,29 @@
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>50</v>
@@ -3979,29 +3985,29 @@
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>50</v>
@@ -4028,10 +4034,10 @@
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>50</v>
@@ -4058,10 +4064,10 @@
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>50</v>
@@ -4084,14 +4090,14 @@
         <v>47</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>50</v>
@@ -4118,10 +4124,10 @@
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>50</v>
@@ -4148,10 +4154,10 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>50</v>
@@ -4159,13 +4165,13 @@
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>46</v>
@@ -4178,10 +4184,10 @@
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>50</v>
@@ -4189,13 +4195,13 @@
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>67</v>
@@ -4208,10 +4214,10 @@
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="J29" s="27" t="s">
         <v>50</v>
@@ -4219,13 +4225,13 @@
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>67</v>
@@ -4238,21 +4244,21 @@
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -4267,13 +4273,13 @@
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>67</v>
@@ -4282,14 +4288,14 @@
         <v>47</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>50</v>
@@ -4303,7 +4309,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>67</v>
@@ -4312,14 +4318,14 @@
         <v>47</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>171</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>172</v>
       </c>
       <c r="J33" s="28" t="s">
         <v>50</v>
@@ -4327,13 +4333,13 @@
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>67</v>
@@ -4342,14 +4348,14 @@
         <v>47</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J34" s="28" t="s">
         <v>50</v>
@@ -4357,13 +4363,13 @@
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>67</v>
@@ -4372,25 +4378,25 @@
         <v>47</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>50</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -4405,13 +4411,13 @@
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>67</v>
@@ -4420,31 +4426,31 @@
         <v>47</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="I37" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="J37" s="31" t="s">
+      <c r="K37" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>67</v>
@@ -4453,31 +4459,31 @@
         <v>47</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="I38" s="23" t="s">
-        <v>225</v>
-      </c>
       <c r="J38" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>67</v>
@@ -4486,31 +4492,31 @@
         <v>47</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J39" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>67</v>
@@ -4519,31 +4525,31 @@
         <v>47</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J40" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>67</v>
@@ -4552,31 +4558,31 @@
         <v>47</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J41" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>67</v>
@@ -4585,31 +4591,31 @@
         <v>47</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>50</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>67</v>
@@ -4618,31 +4624,31 @@
         <v>47</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J43" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>46</v>
@@ -4651,14 +4657,14 @@
         <v>47</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>243</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>244</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>50</v>
@@ -4666,13 +4672,13 @@
     </row>
     <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>46</v>
@@ -4681,16 +4687,16 @@
         <v>47</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>50</v>
@@ -4698,13 +4704,13 @@
     </row>
     <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>46</v>
@@ -4713,16 +4719,16 @@
         <v>47</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G46" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>243</v>
-      </c>
       <c r="I46" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>50</v>
@@ -4730,13 +4736,13 @@
     </row>
     <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>46</v>
@@ -4745,14 +4751,14 @@
         <v>47</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>50</v>
@@ -4774,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4802,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4811,19 +4817,19 @@
         <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4837,286 +4843,286 @@
     </row>
     <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="I2" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="I3" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="I4" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="I5" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="I6" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="I7" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="I8" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I8" s="23" t="s">
+      <c r="J8" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>276</v>
-      </c>
       <c r="L8" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/TD_Tarasevich(Wildberries).xlsx
+++ b/TD_Tarasevich(Wildberries).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -663,9 +663,6 @@
     <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Беларуси</t>
   </si>
   <si>
-    <t>Сайт должен быть полность локализирован для Узбекистана</t>
-  </si>
-  <si>
     <t>Сайт полностью локализирован для Беларуси</t>
   </si>
   <si>
@@ -1530,9 +1527,6 @@
     <t>Авторизация</t>
   </si>
   <si>
-    <t>При авторизации сайт требует прохождение аутентификации, при повторной авторизации на сайте после выхода с учетной записи и закрытия браузера сайт требует проходжение аутентификации</t>
-  </si>
-  <si>
     <t>1)Нажать на поле "Войти"                                 2)Контактный телефон введен, нажать на поле "Войти"                                                                         3)Ввести код подтвежления пользователя            4)Нажать на поле "Профиль"                             5)Нажать на поле "Выйти"                             6)Закрыть браузер                                               7)Открыть браузер                                                 8)Нажать на поле "Войти"                                  9)Контактный телефон введен, нажать на поле "Войти"                                                                          10)Ввести код подтверждения пользователя</t>
   </si>
   <si>
@@ -1549,6 +1543,27 @@
   </si>
   <si>
     <t>Поиск товара используя "Каталог товаров"</t>
+  </si>
+  <si>
+    <t>Сайт полностью не локализирован для Беларуси</t>
+  </si>
+  <si>
+    <t>Сайт полностью не локализирован для Армении</t>
+  </si>
+  <si>
+    <t>Сайт полностью не локализирован для Израиля</t>
+  </si>
+  <si>
+    <t>Сайт полностью не локализирован для Казахстана</t>
+  </si>
+  <si>
+    <t>Сайт полностью не локализирован для Киргизии</t>
+  </si>
+  <si>
+    <t>Сайт полностью не локализирован для Узбекистана</t>
+  </si>
+  <si>
+    <t>При авторизации сайт требует прохождение аутентификации, при повторной авторизации на сайте после выхода с учетной записи и закрытия браузера сайт не требует проходжение аутентификации</t>
   </si>
 </sst>
 </file>
@@ -3175,7 +3190,7 @@
         <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>212</v>
@@ -3189,7 +3204,7 @@
         <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>212</v>
@@ -3203,7 +3218,7 @@
         <v>188</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>212</v>
@@ -3217,7 +3232,7 @@
         <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>212</v>
@@ -3231,7 +3246,7 @@
         <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>212</v>
@@ -3245,7 +3260,7 @@
         <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>50</v>
@@ -3259,7 +3274,7 @@
         <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>212</v>
@@ -3336,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3374,7 +3389,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3544,7 +3559,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="4" t="s">
@@ -3574,7 +3589,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="4" t="s">
@@ -3607,7 +3622,7 @@
         <v>75</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
@@ -4426,7 +4441,7 @@
         <v>47</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="23" t="s">
@@ -4459,14 +4474,14 @@
         <v>47</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="23" t="s">
         <v>223</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>224</v>
       </c>
       <c r="J38" s="31" t="s">
         <v>212</v>
@@ -4492,14 +4507,14 @@
         <v>47</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J39" s="33" t="s">
         <v>212</v>
@@ -4525,14 +4540,14 @@
         <v>47</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J40" s="33" t="s">
         <v>212</v>
@@ -4558,14 +4573,14 @@
         <v>47</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J41" s="33" t="s">
         <v>212</v>
@@ -4591,14 +4606,14 @@
         <v>47</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>50</v>
@@ -4624,14 +4639,14 @@
         <v>47</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J43" s="33" t="s">
         <v>212</v>
@@ -4648,7 +4663,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>46</v>
@@ -4657,14 +4672,14 @@
         <v>47</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I44" s="23" t="s">
         <v>242</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>243</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>50</v>
@@ -4678,7 +4693,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>46</v>
@@ -4687,16 +4702,16 @@
         <v>47</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>50</v>
@@ -4710,7 +4725,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>46</v>
@@ -4719,16 +4734,16 @@
         <v>47</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G46" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="H46" s="23" t="s">
-        <v>242</v>
-      </c>
       <c r="I46" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>50</v>
@@ -4751,14 +4766,14 @@
         <v>47</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>50</v>
@@ -4780,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,7 +4823,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4817,19 +4832,19 @@
         <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4849,7 +4864,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>185</v>
@@ -4858,25 +4873,25 @@
         <v>47</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>211</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>213</v>
@@ -4890,7 +4905,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>185</v>
@@ -4899,25 +4914,25 @@
         <v>47</v>
       </c>
       <c r="F3" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="I3" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>213</v>
@@ -4931,7 +4946,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>185</v>
@@ -4940,25 +4955,25 @@
         <v>47</v>
       </c>
       <c r="F4" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="I4" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>213</v>
@@ -4972,7 +4987,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>185</v>
@@ -4981,25 +4996,25 @@
         <v>47</v>
       </c>
       <c r="F5" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="I5" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>213</v>
@@ -5013,7 +5028,7 @@
         <v>65</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>185</v>
@@ -5022,25 +5037,25 @@
         <v>47</v>
       </c>
       <c r="F6" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="I6" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>213</v>
@@ -5054,7 +5069,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>185</v>
@@ -5063,25 +5078,25 @@
         <v>47</v>
       </c>
       <c r="F7" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="I7" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>213</v>
@@ -5089,40 +5104,40 @@
     </row>
     <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="I8" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>275</v>
-      </c>
       <c r="L8" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/TD_Tarasevich(Wildberries).xlsx
+++ b/TD_Tarasevich(Wildberries).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -48,15 +48,9 @@
     <t>GUI_2</t>
   </si>
   <si>
-    <t>Добавить товар в корзину</t>
-  </si>
-  <si>
     <t>Товар добавлен в корзину</t>
   </si>
   <si>
-    <t>Оформить заказ</t>
-  </si>
-  <si>
     <t>Товар удален из корзины</t>
   </si>
   <si>
@@ -81,15 +75,9 @@
     <t>Товар готов к оплате</t>
   </si>
   <si>
-    <t>Оставить отзыв не авторизованным пользователем</t>
-  </si>
-  <si>
     <t>Сайт требует пройти авторизацию</t>
   </si>
   <si>
-    <t>Оставить отзыв авторизованным пользователем на товар который не был заказан</t>
-  </si>
-  <si>
     <t>Появляется сообщение: "Вы не можете оставить отзыв, так как не заказывали данный товар или отказались от его доставки."</t>
   </si>
   <si>
@@ -141,12 +129,6 @@
     <t>FUN_2.5</t>
   </si>
   <si>
-    <t>Добавить товар в корзину с последующей чисткой Cache</t>
-  </si>
-  <si>
-    <t>Удалить товар из корзины</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -222,9 +204,6 @@
     <t>User Profile</t>
   </si>
   <si>
-    <t>Найти товар используя поле "Я ищу..." с использованием ввода текста</t>
-  </si>
-  <si>
     <t>1)Нажать на поле "Я ищу..."                             2)Ввести "кроссовки asics"                               3)Нажать клавишу Enter</t>
   </si>
   <si>
@@ -237,12 +216,6 @@
     <t>image URL: https://images.wbstatic.net/big/new/8590000/8598608-1.jpg         pop-ups URL: https://recordit.co/mrb2de6yTW</t>
   </si>
   <si>
-    <t>Найти товар используя "Каталог товаров"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Найти товар используя поле "Я ищу..." с использованием файла изображения </t>
-  </si>
-  <si>
     <t xml:space="preserve">Firefox              Version 101.0 </t>
   </si>
   <si>
@@ -345,42 +318,6 @@
     <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               2)Нажать на поле с суммой, которое находится под текстом "От"                            3)Ввести 180                                                           4))Нажать на поле с суммой, которое находится под текстом "До"                               5)Ввести 250                                                      6)Нажать Enter</t>
   </si>
   <si>
-    <t>Отфильтровать товар по Бренду</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Цене</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Скидке</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Цвету</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Размеру</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Сезону</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Составу</t>
-  </si>
-  <si>
-    <t>Отфильтровать товар по Сроку доставки</t>
-  </si>
-  <si>
-    <t>Отсортировать товар по Обновлению</t>
-  </si>
-  <si>
-    <t>Отсортировать товар по Скидке</t>
-  </si>
-  <si>
-    <t>Отсортировать товар по Цене (по возрастанию или убыванию)</t>
-  </si>
-  <si>
-    <t>Отсортировать товар по Рейтингу</t>
-  </si>
-  <si>
     <t>Отсортировать товар по Популярности</t>
   </si>
   <si>
@@ -444,9 +381,6 @@
     <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           2)Нажать на сheckbox                                  3)Нажать на поле "Добавить в корзину" 4)Нажать на поле "Корзина"                        5)Выбрать способ доставки                          6)Выбрать способ оплаты</t>
   </si>
   <si>
-    <t>Оформить заказ для активации оплаты товара</t>
-  </si>
-  <si>
     <t>1)URL открыт                                                              2)Сheckbox переходит в состояние включён 3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     4)Происходит переход на страницу "Корзина", где находится выбранный товар                                      5)Способ доставки выбран                                         6)Способ оплаты выбран и поле "Заказать" меняется на поле "Оплатить заказ"</t>
   </si>
   <si>
@@ -468,9 +402,6 @@
     <t>1)URL открыт                                                              2)Сheckbox переходит в состояние включён  3)Происходит переход на страницу "Корзина", где находится выбранный товар и появляется pop-up с сообщением: Товар успешно добавлен в корзину  4)Способ доставки выбран                                 5)Способ оплаты выбран и поле "Заказать" меняется на поле "Оплатить заказ"</t>
   </si>
   <si>
-    <t>Оставить отзыв</t>
-  </si>
-  <si>
     <t>1)Открыть URL: https://by.wildberries.ru/catalog/40651287/detail.aspx?targetUrl=MI                                 2)Нажать на поле "Написать отзыв"</t>
   </si>
   <si>
@@ -1563,7 +1494,94 @@
     <t>Сайт полностью не локализирован для Узбекистана</t>
   </si>
   <si>
-    <t>При авторизации сайт требует прохождение аутентификации, при повторной авторизации на сайте после выхода с учетной записи и закрытия браузера сайт не требует проходжение аутентификации</t>
+    <t>Отсутствует подтверждение пользователя при повторной авторизации</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Рейтингу</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Цене (по возрастанию или убыванию)</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Скидке</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Обновлению</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Сроку доставки</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Бренду</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Цене</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Скидке</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Цвету</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Размеру</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Сезону</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Составу</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину с последующей чисткой Cache</t>
+  </si>
+  <si>
+    <t>Оформление заказа для активации оплаты товара</t>
+  </si>
+  <si>
+    <t>Оформление заказа</t>
+  </si>
+  <si>
+    <t>Удаление товара из корзины</t>
+  </si>
+  <si>
+    <t>Создание отзыва</t>
+  </si>
+  <si>
+    <t>Создание отзыва авторизованным пользователем на товар который был заказан</t>
+  </si>
+  <si>
+    <t>Отсутствие создания отзыва</t>
+  </si>
+  <si>
+    <t>Отсутствие создания отзыва не авторизованным пользователем</t>
+  </si>
+  <si>
+    <t>Отсутсвие оздания отзыва авторизованным пользователем на товар который не был заказан</t>
+  </si>
+  <si>
+    <t>Отсутствие создания отзыва авторизованным пользователем на товар который не был заказан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск товара используя поле "Я ищу..." с использованием файла изображения </t>
+  </si>
+  <si>
+    <t>Cортировка товара по Популярности</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Рейтингу</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Цене (по возрастанию или убыванию)</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Скидке</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Обновлению</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2703,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2730,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2720,16 +2738,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2737,41 +2755,41 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2784,399 +2802,399 @@
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="D23" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
       <c r="D24" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -3184,156 +3202,156 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="35" t="s">
         <v>189</v>
-      </c>
-      <c r="C40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3351,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3406,7 +3424,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -3421,859 +3439,859 @@
     </row>
     <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="3" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="4" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="4" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -4288,32 +4306,32 @@
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="23" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4321,97 +4339,97 @@
         <v>9</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="23" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="23" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="23" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -4426,357 +4444,357 @@
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="23" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="23" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="23" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="23" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="23" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="23" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="23" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="23" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="4" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4795,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,28 +4841,28 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4858,286 +4876,286 @@
     </row>
     <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I5" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>248</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/TD_Tarasevich(Wildberries).xlsx
+++ b/TD_Tarasevich(Wildberries).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="567" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -144,21 +144,9 @@
     <t>Google Chrome Version 102.0.5005.63</t>
   </si>
   <si>
-    <t>1)Нажать на поле "Войти"                                 2)Ввести контактный телефон                          3)Нажать на поле "Получить код"                 4)Ввести код подтвежления пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации 2)Контактных телефон введен                   3)Получаем код подтверждения на мобильное устройство                                                                 4)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>1)Нажать на поле "Войти"                                 2)Ввести контактный телефон                          3)Нажать на поле "Получить код"                 4)Ввести код подтвежления пользователя 5)Очистить Сookies с помощью DevTools 6)Нажать F5</t>
-  </si>
-  <si>
-    <t>1)Сайт перенаправляет на страницу авторизации 2)Контактных телефон введен                   3)Получаем код подтверждения на мобильное устройство                                                                 4)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем   5)Cookies удален                                                 6)Страница сайта обновлена с не авторизованным пользователем</t>
-  </si>
-  <si>
     <t xml:space="preserve">User Profile </t>
   </si>
   <si>
@@ -171,21 +159,9 @@
     <t>Выход из учетной записи пользователя через pop-up</t>
   </si>
   <si>
-    <t>1)Нажать на поле "Профиль"                   2)Нажать на поле "Выйти"</t>
-  </si>
-  <si>
-    <t>1)Сайт перенаправляет на страницу учетной записи пользователя                                                   2)Сайт открывает начальную страницу сайта с не авторизованным пользователем</t>
-  </si>
-  <si>
     <t>Выход из учетной записи пользователя через профиль пользователя</t>
   </si>
   <si>
-    <t>1)Навести курсор на поле "Профиль" 2)Нажать на поле "Выйти"</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                                   2)Сайт открывает начальную страницу сайта с не авторизованным пользователем</t>
-  </si>
-  <si>
     <t>pop-up URL: https://recordit.co/26lfByVM2F</t>
   </si>
   <si>
@@ -204,75 +180,21 @@
     <t>User Profile</t>
   </si>
   <si>
-    <t>1)Нажать на поле "Я ищу..."                             2)Ввести "кроссовки asics"                               3)Нажать клавишу Enter</t>
-  </si>
-  <si>
-    <t>1)Поле "Я ищу..." становится активным           2)Текст введен                                                  3)Происходит переход на страницу с найденным товаром по введенному запросу</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Появляется pop-up(Page-stop)                                3)Файл выбран                                                            4)Происходит переход на страницу с найденным товаром по выбранному фото</t>
-  </si>
-  <si>
-    <t>image URL: https://images.wbstatic.net/big/new/8590000/8598608-1.jpg         pop-ups URL: https://recordit.co/mrb2de6yTW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Firefox              Version 101.0 </t>
   </si>
   <si>
-    <t>1)Появляется pop-up                                           2)Происходит перевод на страницу сайта с товарами обуви                                                     3)Происходит фильтрация товара по выбранному критерию                                                                        4)Происходит фильтрация товара по выбранному критерию</t>
-  </si>
-  <si>
     <t xml:space="preserve">Авториязация пользователя на сайте </t>
   </si>
   <si>
-    <t xml:space="preserve">Авториязация пользователя на сайте , с последующей чисткой Cookies </t>
-  </si>
-  <si>
     <t>Functionality  URL: https://by.wildberries.ru/</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Нажать на                                                                           2)Нажать на поле "Обувь"                          3)Нажать на поле "Мужская"                    4)Нажать на поле "Кеды и кроссовки" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Нажать на                                                             2)Нажать на поле "Выберите файл" 3)Выбрать файл 8598608-1.jpg                  4)Нажать на поле"Открыть" </t>
-  </si>
-  <si>
     <t>pop-up URL: https://recordit.co/AIqfN6GuaP</t>
   </si>
   <si>
     <t>Cортировка товара</t>
   </si>
   <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                                2)Нажать на поле "Рейтингу"                            3)Нажать на поле "Популярности</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                             2)Происходит сортировка товара по "Рейтингу" 3)Происходит сортировка товара по "Популярности"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                       2)Нажать на поле "Рейтингу</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                        2)Происходит сортировка товара по "Рейтингу"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                       2)Нажать на поле "Цене"                                       3)Нажать на поле "Цене"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                           2)Происходит сортировка товара по "Цене" по возрастанию                                                            3)Происходит сортировка товара по "Цене" по убыванию</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                            2)Нажать на поле "Скидке"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               2)Нажать на поле "Обновлению"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                               2)Происходит сортировка товара по "Скидке" по её убыванию</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                        2)Происходит сортировка товара по "Обновлению"</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -303,63 +225,15 @@
     <t>Фильтрация товара</t>
   </si>
   <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                       2)Нажать на checkbox "2 дня"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                           2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                             2)Нажать по поле "Я ищу", которое находится под текстом "Бренд"                                          3)Ввести "Asics"                                              4)Нажать на checkbox "ASICS"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                   2)Поле становится активным                                      3)Текст введен                                                           4))Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               2)Нажать на поле с суммой, которое находится под текстом "От"                            3)Ввести 180                                                           4))Нажать на поле с суммой, которое находится под текстом "До"                               5)Ввести 250                                                      6)Нажать Enter</t>
-  </si>
-  <si>
     <t>Отсортировать товар по Популярности</t>
   </si>
   <si>
-    <t>1)URL открыт                                                                     2)Поле становится активным                                     3)Число введено                                                                   4)Поле становится активным                                     5)Число введено                                                       6)Происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
     <t>Товар отфильтрован</t>
   </si>
   <si>
     <t>Товар отсортирован</t>
   </si>
   <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                              2)Нажать на checkbox "от 30% и выше"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                  2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                                  2)Нажать на checkbox</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                                 2)Нажать по поле "Я ищу", которое находится под текстом "Размер"                                         3)Ввести 45                                                                 4)Нажать на checkbox "45"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                     2)Поле становится активным                                      3)Число введено                                                     4)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               2)Нажать на сheckbox "лето"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                      2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                              2)Нажать на checkbox "Air tech"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                 2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
-  </si>
-  <si>
     <t>FUN_10.1</t>
   </si>
   <si>
@@ -372,54 +246,6 @@
     <t>Graphical user interface</t>
   </si>
   <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           2)Нажать на сheckbox                                  3)Нажать на поле "Добавить в корзину" 4)Нажать на поле "Корзина"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           2)Нажать на сheckbox                                  3)Нажать на поле "Добавить в корзину" 4)Очистить Сache с помощью DevTools 5)Нажать на поле "Корзина"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           2)Нажать на сheckbox                                  3)Нажать на поле "Добавить в корзину" 4)Нажать на поле "Корзина"                        5)Выбрать способ доставки                          6)Выбрать способ оплаты</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                              2)Сheckbox переходит в состояние включён 3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     4)Происходит переход на страницу "Корзина", где находится выбранный товар                                      5)Способ доставки выбран                                         6)Способ оплаты выбран и поле "Заказать" меняется на поле "Оплатить заказ"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                          2)Сheckbox переходит в состояние включён 3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                  4)Cache удален                                                         5)Происходит переход на страницу "Корзина", где находится выбранный товар</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                              2)Сheckbox переходит в состояние включён 3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     4)Происходит переход на страницу "Корзина", где находится выбранный товар</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                              2)Сheckbox переходит в состояние включён 3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     4)Происходит переход на страницу "Корзина", где находится выбранный товар 5)Появляются дополнительные поля: "В избранное", "Удалить" 6)Происходит обновление страницы с появлением сообщения: В корзине пока ничего нет</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           2)Нажать на сheckbox                                  3)Нажать на поле "Добавить в корзину" 4)Нажать на поле "Корзина"                       5)Навести курсор на  -------&gt;                                                                                                      6)Нажать на поле "Удалить"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           2)Нажать на сheckbox                                    3)Нажать на поле "Купить сейчас"      4)Выбрать способ доставки                          5)Выбрать способ оплаты</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                              2)Сheckbox переходит в состояние включён  3)Происходит переход на страницу "Корзина", где находится выбранный товар и появляется pop-up с сообщением: Товар успешно добавлен в корзину  4)Способ доставки выбран                                 5)Способ оплаты выбран и поле "Заказать" меняется на поле "Оплатить заказ"</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/40651287/detail.aspx?targetUrl=MI                                 2)Нажать на поле "Написать отзыв"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                 2)Происходит переход на страницу с требованием авторизации</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/40651287/detail.aspx?targetUrl=MI                                  2)Нажать на поле "Написать отзыв"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                          2)Появляется сообщение: Вы не можете оставить отзыв, так как не заказывали данный товар или отказались от его доставки.</t>
-  </si>
-  <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/catalog/59440779/detail.aspx?targetUrl=EX&amp;size=106527045 2)Нажать на поле "Написать отзыв"        3)Ввести данные в обязательные поля 4)Нажать на поле "Отправить"</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                           2)Открывается анкета для заполнения отзыва 3)Данные ввелены                                              4)Появляется pop-up</t>
-  </si>
-  <si>
     <t>pop-up:</t>
   </si>
   <si>
@@ -450,12 +276,6 @@
     <t>Cоответствие сайта его макеру</t>
   </si>
   <si>
-    <t>1)Открыть URL: https://by.wildberries.ru/ 2)Сравнить с макетом сайта</t>
-  </si>
-  <si>
-    <t>При наведение курсора на поле, курсор меняет внешний  вид</t>
-  </si>
-  <si>
     <t>При наведение курсора на поле, курсор меняет внешний вид</t>
   </si>
   <si>
@@ -468,18 +288,9 @@
     <t>Корректная работа scroll по вертикали</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Нажать на scroll bar (удерживая левый клик)                                                                           2)Провести мышку вниз </t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                   2)Начальная страница сайта соответствует макету</t>
-  </si>
-  <si>
     <t>Начальная страница сайта соответствует макету</t>
   </si>
   <si>
-    <t>1)Scroll bar становится активным                    2)Происходит пролистывание начальной страницы вниз</t>
-  </si>
-  <si>
     <t>Происходит пролистывание начальной страницы вниз</t>
   </si>
   <si>
@@ -582,78 +393,12 @@
     <t>Соответствие целей сайта</t>
   </si>
   <si>
-    <t>1)Навести курсор на поле "Выберите страну"        2)Нажать на checkbox "Беларусь"</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
     <t>pop-up URL: https://recordit.co/l0OVvobrhf</t>
   </si>
   <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Беларуси</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для Беларуси</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для Армении</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для Израиля</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для Казахстана</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для Киргизии</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для России</t>
-  </si>
-  <si>
-    <t>Сайт полностью локализирован для Узбекистана</t>
-  </si>
-  <si>
-    <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Армения"</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Армении</t>
-  </si>
-  <si>
-    <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Израиль"</t>
-  </si>
-  <si>
-    <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Казахстан"</t>
-  </si>
-  <si>
-    <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Киргизия"</t>
-  </si>
-  <si>
-    <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Россия"</t>
-  </si>
-  <si>
-    <t>1)Навести курсор на поле "Выберите страну" 2)Нажать на checkbox "Узбекистан"</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Израиля</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Казахстана</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Киргизии</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для России</t>
-  </si>
-  <si>
-    <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Узбекистана</t>
-  </si>
-  <si>
-    <t>Сайт должен соответствовать основным целям: купля-продажа товара</t>
-  </si>
-  <si>
     <t>1)Сравнить цели с основным функционалом сайта</t>
   </si>
   <si>
@@ -672,18 +417,6 @@
     <t>Используя DevTools отключить интернет</t>
   </si>
   <si>
-    <t>1)Окрыть URL: https://by.wildberries.ru/ 2)Нажать F5</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                    2)Сайт перезагрузился за 821 ms</t>
-  </si>
-  <si>
-    <t>1)URL открыт                                                                   2)Сайт перезагрузился за 4.32 s</t>
-  </si>
-  <si>
-    <t>1)Появляется сообщение: Нет подключения к Интернету                                                                2)Появляется сообщение: Нет подключения к Интернету</t>
-  </si>
-  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -696,19 +429,686 @@
     <t>Opened</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Lesha Tarasevich</t>
+  </si>
+  <si>
+    <t>Open URL: https://by.wildberries.ru/</t>
+  </si>
+  <si>
+    <t>B_FUN_1</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>Поиск товара используя "Каталог товаров"</t>
+  </si>
+  <si>
+    <t>Отсутствует подтверждение пользователя при повторной авторизации</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Рейтингу</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Цене (по возрастанию или убыванию)</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Скидке</t>
+  </si>
+  <si>
+    <t>Сортировка товара по Обновлению</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Сроку доставки</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Бренду</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Цене</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Скидке</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Цвету</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Размеру</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Сезону</t>
+  </si>
+  <si>
+    <t>Фильтрация товара по Составу</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину</t>
+  </si>
+  <si>
+    <t>Добавление товара в корзину с последующей чисткой Cache</t>
+  </si>
+  <si>
+    <t>Оформление заказа для активации оплаты товара</t>
+  </si>
+  <si>
+    <t>Оформление заказа</t>
+  </si>
+  <si>
+    <t>Удаление товара из корзины</t>
+  </si>
+  <si>
+    <t>Создание отзыва</t>
+  </si>
+  <si>
+    <t>Отсутствие создания отзыва</t>
+  </si>
+  <si>
+    <t>Отсутствие создания отзыва не авторизованным пользователем</t>
+  </si>
+  <si>
+    <t>Отсутствие создания отзыва авторизованным пользователем на товар который не был заказан</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Популярности</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Рейтингу</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Цене (по возрастанию или убыванию)</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Скидке</t>
+  </si>
+  <si>
+    <t>Cортировка товара по Обновлению</t>
+  </si>
+  <si>
+    <t>1)Нажать на поле "Войти"       
+2)Ввести контактный телефон                          
+3)Нажать на поле "Получить код"                 
+4)Ввести код подтвежления пользователя</t>
+  </si>
+  <si>
+    <t>1)Нажать на поле "Войти"                                 
+2)Ввести контактный телефон                          
+3)Нажать на поле "Получить код"                
+4)Ввести код подтвежления пользователя 
+5)Очистить Сookies с помощью DevTools 
+6)Нажать F5</t>
+  </si>
+  <si>
+    <t>1)Нажать на поле "Профиль"
+2)Нажать на поле "Выйти"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Профиль" 
+2)Нажать на поле "Выйти"</t>
+  </si>
+  <si>
+    <t>1)Нажать на поле "Я ищу..."                             
+2)Ввести "кроссовки asics"                               
+3)Нажать клавишу Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Нажать на                                                             
+2)Нажать на поле "Выберите файл" 
+3)Выбрать файл 8598608-1.jpg                  
+4)Нажать на поле"Открыть" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Нажать на                                                                           
+2)Нажать на поле "Обувь"                          
+3)Нажать на поле "Мужская"                    
+4)Нажать на поле "Кеды и кроссовки" </t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                                
+2)Нажать на поле "Рейтингу"                            
+3)Нажать на поле "Популярности</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                       
+2)Нажать на поле "Рейтингу</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                       
+2)Нажать на поле "Цене"                                       
+3)Нажать на поле "Цене"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                            
+2)Нажать на поле "Скидке"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               
+2)Нажать на поле "Обновлению"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                       
+2)Нажать на checkbox "2 дня"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               
+2)Нажать на поле с суммой, которое находится под текстом "От"                            
+3)Ввести 180                                                           
+4))Нажать на поле с суммой, которое находится под текстом "До"                               
+5)Ввести 250                                                      
+6)Нажать Enter</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                             
+2)Нажать по поле "Я ищу", которое находится под текстом "Бренд"                                          
+3)Ввести "Asics"                                              
+4)Нажать на checkbox "ASICS"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                                  
+2)Нажать на checkbox</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                                 
+2)Нажать по поле "Я ищу", которое находится под текстом "Размер"                                         
+3)Ввести 45                                                                 
+4)Нажать на checkbox "45"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                               
+2)Нажать на сheckbox "лето"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                              
+2)Нажать на checkbox "от 30% и выше"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/obuv/muzhskaya                                                                              
+2)Нажать на checkbox "Air tech"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           
+2)Нажать на сheckbox                                  
+3)Нажать на поле "Добавить в корзину" 
+4)Очистить Сache с помощью DevTools 
+5)Нажать на поле "Корзина"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           
+2)Нажать на сheckbox                                  
+3)Нажать на поле "Добавить в корзину" 
+4)Нажать на поле "Корзина"                        
+5)Выбрать способ доставки                          
+6)Выбрать способ оплаты</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           
+2)Нажать на сheckbox                                  
+3)Нажать на поле "Добавить в корзину" 
+4)Нажать на поле "Корзина"                       
+5)Навести курсор на  -------&gt;                                                                                                      
+6)Нажать на поле "Удалить"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           
+2)Нажать на сheckbox                                    
+3)Нажать на поле "Купить сейчас"      
+4)Выбрать способ доставки                          
+5)Выбрать способ оплаты</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/40651287/detail.aspx?targetUrl=MI                                 
+2)Нажать на поле "Написать отзыв"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/40651287/detail.aspx?targetUrl=MI                                  
+2)Нажать на поле "Написать отзыв"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/59440779/detail.aspx?targetUrl=EX&amp;size=106527045 
+2)Нажать на поле "Написать отзыв"        
+3)Ввести данные в обязательные поля 
+4)Нажать на поле "Отправить"</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/ 
+2)Сравнить с макетом сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Нажать на scroll bar (удерживая левый клик)                                                                           
+2)Провести мышку вниз </t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну"        
+2)Нажать на checkbox "Беларусь"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну" 
+2)Нажать на checkbox "Армения"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну" 
+2)Нажать на checkbox "Израиль"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну" 
+2)Нажать на checkbox "Казахстан"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну" 
+2)Нажать на checkbox "Киргизия"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну" 
+2)Нажать на checkbox "Россия"</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на поле "Выберите страну" 
+2)Нажать на checkbox "Узбекистан"</t>
+  </si>
+  <si>
+    <t>1)Окрыть URL: https://by.wildberries.ru/ 
+2)Нажать F5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации 
+2)Контактных телефон введен                   
+3)Получаем код подтверждения на мобильное устройство                                                                 
+4)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
+  </si>
+  <si>
+    <t>1)Сайт перенаправляет на страницу авторизации 
+2)Контактных телефон введен                   
+3)Получаем код подтверждения на мобильное устройство                                                                 
+4)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем   
+5)Cookies удален                                                 
+6)Страница сайта обновлена с не авторизованным пользователем</t>
+  </si>
+  <si>
+    <t>1)Сайт перенаправляет на страницу учетной записи пользователя                                                   
+2)Сайт открывает начальную страницу с не авторизованным пользователем</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                                   
+2)Сайт открывает начальную страницу с не авторизованным пользователем</t>
+  </si>
+  <si>
+    <t>1)Поле "Я ищу..." становится активным           
+2)Текст введен                                                  
+3)Происходит переход на страницу с найденным товаром по введенному запросу</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Появляется pop-up(Page-stop)                                
+3)Файл выбран                                                            
+4)Происходит переход на страницу с найденным товаром по выбранному фото</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                           
+2)Происходит перевод на страницу сайта с товарами обуви                                                     
+3)Происходит фильтрация товара по выбранному критерию                                                                        
+4)Происходит фильтрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                             
+2)Происходит сортировка товара по "Рейтингу" 
+3)Происходит сортировка товара по "Популярности"</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                        
+2)Происходит сортировка товара по "Рейтингу"</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                           
+2)Происходит сортировка товара по "Цене" по возрастанию                                                            
+3)Происходит сортировка товара по "Цене" по убыванию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                               
+2)Происходит сортировка товара по "Скидке" по её убыванию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                        
+2)Происходит сортировка товара по "Обновлению"</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                           
+2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                   
+2)Поле становится активным                                      
+3)Текст введен                                                           
+4))Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                     
+2)Поле становится активным                                     
+3)Число введено                                                                   
+4)Поле становится активным                                     
+5)Число введено                                                       
+6)Происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                
+2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                  
+2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                     
+2)Поле становится активным                                      
+3)Число введено                                                     
+4)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                      
+2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                 
+2)Сheckbox переходит в состояние включён и происходит фитрация товара по выбранному критерию</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                              
+2)Сheckbox переходит в состояние включён 
+3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     
+4)Происходит переход на страницу "Корзина", где находится выбранный товар</t>
+  </si>
+  <si>
+    <t>1)Открыть URL: https://by.wildberries.ru/catalog/34894930/detail.aspx?targetUrl=GP                                           
+2)Нажать на сheckbox                                  
+3)Нажать на поле "Добавить в корзину" 
+4)Нажать на поле "Корзина"</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                          
+2)Сheckbox переходит в состояние включён 
+3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                  
+4)Cache удален                                                         
+5)Происходит переход на страницу "Корзина", где находится выбранный товар</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                              
+2)Сheckbox переходит в состояние включён 
+3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     
+4)Происходит переход на страницу "Корзина", где находится выбранный товар                                      
+5)Способ доставки выбран                                         
+6)Способ оплаты выбран и поле "Заказать" меняется на поле "Оплатить заказ"</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                              
+2)Сheckbox переходит в состояние включён 
+3)Появляется pop-up с сообщением: Товар успешно добавлен в корзину                                     
+4)Происходит переход на страницу "Корзина", где находится выбранный товар 
+5)Появляются дополнительные поля: "В избранное", "Удалить" 
+6)Происходит обновление страницы с появлением сообщения: В корзине пока ничего нет</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                              
+2)Сheckbox переходит в состояние включён  
+3)Происходит переход на страницу "Корзина", где находится выбранный товар и появляется pop-up с сообщением: Товар успешно добавлен в корзину  
+4)Способ доставки выбран                                 
+5)Способ оплаты выбран и поле "Заказать" меняется на поле "Оплатить заказ"</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                 
+2)Происходит переход на страницу с требованием авторизации</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                          
+2)Появляется сообщение: Вы не можете оставить отзыв, так как не заказывали данный товар или отказались от его доставки.</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                           
+2)Открывается анкета для заполнения отзыва 
+3)Данные введены                                              
+4)Появляется pop-up</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                   
+2)Начальная страница сайта соответствует макету</t>
+  </si>
+  <si>
+    <t>1)Scroll bar становится активным                    
+2)Происходит пролистывание начальной страницы вниз</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                    
+2)Сайт перезагрузился за 821 ms</t>
+  </si>
+  <si>
+    <t>1)URL открыт                                                                   
+2)Сайт перезагрузился за 4.32 s</t>
+  </si>
+  <si>
+    <t>1)Появляется сообщение: Нет подключения к Интернету                                                                
+2)Появляется сообщение: Нет подключения к Интернету</t>
+  </si>
+  <si>
+    <t>image URL: https://images.wbstatic.net/big/new/8590000/8598608-1.jpg         
+pop-ups URL: https://recordit.co/mrb2de6yTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авториязация пользователя на сайте, с последующей чисткой Cookies </t>
+  </si>
+  <si>
+    <t>Поиск товара используя поле "Я ищу..." с помощью текста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск товара используя поле "Я ищу..." с помощью изображения </t>
+  </si>
+  <si>
+    <t>Отсутсвие создания отзыва авторизованным пользователем на незаказанный товар</t>
+  </si>
+  <si>
+    <t>Создание отзыва авторизованным пользователем на заказанный товар</t>
+  </si>
+  <si>
+    <t>Наведение курсора на поле,  меняет его внешний  вид</t>
+  </si>
+  <si>
+    <t>Открытие сайта при хорошем соединении к интернету</t>
+  </si>
+  <si>
+    <t>Открытие сайта при слабом сигнале интернета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сайт недоступен при отсутствии подключения к интернету </t>
+  </si>
+  <si>
+    <t>Соответствие основным целям: купля-продажа товара</t>
+  </si>
+  <si>
+    <t>1)Нажать на поле "Войти"                                 
+2)Контактный телефон введен, нажать на поле "Войти"                                                                         
+3)Ввести код подтвежления пользователя            
+4)Нажать на поле "Профиль"                             
+5)Нажать на поле "Выйти"                             
+6)Закрыть браузер                                               
+7)Открыть браузер                                                 
+8)Нажать на поле "Войти"                                  
+9)Контактный телефон введен, нажать на поле "Войти"                                                                          
+10)Ввести код подтверждения пользователя</t>
+  </si>
+  <si>
+    <t>USA_1.1.1</t>
+  </si>
+  <si>
+    <t>USA_1.1.2</t>
+  </si>
+  <si>
+    <t>Локализация текста для Беларуси</t>
+  </si>
+  <si>
+    <t>Локализация изображения для Беларуси</t>
+  </si>
+  <si>
+    <t>Текст локализирован для Беларуси</t>
+  </si>
+  <si>
+    <t>Текст не локализирован для Беларуси</t>
+  </si>
+  <si>
+    <t>USA_1.2.1</t>
+  </si>
+  <si>
+    <t>USA_1.2.2</t>
+  </si>
+  <si>
+    <t>Локализация текста для Армении</t>
+  </si>
+  <si>
+    <t>Локализация изображения для Армении</t>
+  </si>
+  <si>
+    <t>Текст не локализирован для Армении</t>
+  </si>
+  <si>
+    <t>Текст локализирован для Армении</t>
+  </si>
+  <si>
+    <t>USA_1.3.1</t>
+  </si>
+  <si>
+    <t>USA_1.3.2</t>
+  </si>
+  <si>
+    <t>Локализация текста для Израиля</t>
+  </si>
+  <si>
+    <t>Локализация изображения для Израиля</t>
+  </si>
+  <si>
+    <t>Локализация текста для Казахстана</t>
+  </si>
+  <si>
+    <t>Локализация изображения для Казахстана</t>
+  </si>
+  <si>
+    <t>USA_1.4.1</t>
+  </si>
+  <si>
+    <t>USA_1.4.2</t>
+  </si>
+  <si>
+    <t>USA_1.5.1</t>
+  </si>
+  <si>
+    <t>USA_1.5.2</t>
+  </si>
+  <si>
+    <t>USA_1.7.1</t>
+  </si>
+  <si>
+    <t>USA_1.7.2</t>
+  </si>
+  <si>
+    <t>Локализация изображения для Киргизии</t>
+  </si>
+  <si>
+    <t>Локализация текста для Узбекистана</t>
+  </si>
+  <si>
+    <t>Локализация изображения для Узбекистана</t>
+  </si>
+  <si>
+    <t>Изображение не локализировано для Беларуси</t>
+  </si>
+  <si>
+    <t>Изображение не локализировано для Армении</t>
+  </si>
+  <si>
+    <t>Текст не локализирован для Израиля</t>
+  </si>
+  <si>
+    <t>Изображение не локализировано для Израиля</t>
+  </si>
+  <si>
+    <t>Текст не локализирован для Казахстана</t>
+  </si>
+  <si>
+    <t>Изображение не локализировано для Казахстана</t>
+  </si>
+  <si>
+    <t>Текст не локализирован для Киргизии</t>
+  </si>
+  <si>
+    <t>Изображение локализировано для Беларуси</t>
+  </si>
+  <si>
+    <t>Изображение локализировано для Армении</t>
+  </si>
+  <si>
+    <t>Текст локализирован для Израиля</t>
+  </si>
+  <si>
+    <t>Изображение локализировано для Израиля</t>
+  </si>
+  <si>
+    <t>Текст локализирован для Казахстана</t>
+  </si>
+  <si>
+    <t>Изображение локализировано для Казахстана</t>
+  </si>
+  <si>
+    <t>Текст локализирован для Киргизии</t>
+  </si>
+  <si>
+    <t>Изображение не локализировано для Киргизии</t>
+  </si>
+  <si>
+    <t>Изображение локализировано для Киргизии</t>
+  </si>
+  <si>
+    <t>Текст не локализирован для Узбекистана</t>
+  </si>
+  <si>
+    <t>Изображение не локализировано для Узбекистана</t>
+  </si>
+  <si>
+    <t>Текст локализирован для Узбекистана</t>
+  </si>
+  <si>
+    <t>Изображение локализировано для Узбекистана</t>
+  </si>
+  <si>
+    <t>Локализация текста для Киргизии</t>
+  </si>
+  <si>
+    <t>Присутствует подтверждение пользователя</t>
+  </si>
+  <si>
+    <t>Локализация сайта для Армении</t>
+  </si>
+  <si>
+    <t>Локализация сайта для Беларуси</t>
+  </si>
+  <si>
+    <t>Локализация сайта для Израиля</t>
+  </si>
+  <si>
     <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Беларуси.                                      Полная локализация:                                                a)</t>
+      <t>Локализация сайта</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">локализация текста  </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -718,882 +1118,92 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                             b)</t>
+      <t>для Казахстана</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                               с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Армении                                             Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация текста</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                               b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Израиля                                          Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                              b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Казахстана                                     Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                           b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                              с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Киргизии                                            Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                              b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с полной локализацией для Узбекистана                                    Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                            b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с не полной локализацией для Беларуси.                                      Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                             b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с не полной локализацией для Армении                                             Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                            b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                              с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с не полной локализацией для Израиля                                          Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                              b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                 с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с не полной локализацией для Казахстана                                     Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                           b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                              с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с не полной локализацией для Киргизии                                            Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                              b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация изображения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1)Появляется pop-up                                              2)Сheckbox переходит в состояние включён и происходит обновление страницы с не полной локализацией для Узбекистана                                    Полная локализация:                                                a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация текста    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                           b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">локализация изображения  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                с)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>локализация валюты</t>
-    </r>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Lesha Tarasevich</t>
-  </si>
-  <si>
-    <t>Open URL: https://by.wildberries.ru/</t>
-  </si>
-  <si>
-    <t>Браузер открывает начальную страницу сайта при хорошем соединении к интернету</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Браузер не открывает начальную страницу сайта при отсутствии подключения к интернету </t>
-  </si>
-  <si>
-    <t>Сайт полность локализирован для России</t>
-  </si>
-  <si>
-    <t>Сайт полность локализирован для Узбекистана</t>
-  </si>
-  <si>
-    <t>Браузер открывает начальную страницу сайта при слабом сигнале интернета</t>
-  </si>
-  <si>
-    <t>B_FUN_1</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Авторизация</t>
-  </si>
-  <si>
-    <t>1)Нажать на поле "Войти"                                 2)Контактный телефон введен, нажать на поле "Войти"                                                                         3)Ввести код подтвежления пользователя            4)Нажать на поле "Профиль"                             5)Нажать на поле "Выйти"                             6)Закрыть браузер                                               7)Открыть браузер                                                 8)Нажать на поле "Войти"                                  9)Контактный телефон введен, нажать на поле "Войти"                                                                          10)Ввести код подтверждения пользователя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации                                   2)Получаем код подтверждения на мобильное устройство                                                                                  3)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем                      4)Сайт перенаправляет на страницу учетной записи пользователя                                                                                5)Сайт открывает начальную страницу сайта с не авторизованным пользователем                                    8)Сайт перенаправляет на страницу авторизации                                   9)Получаем код подтверждения на мобильное устройство                                                                                  10)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Сайт перенаправляет на страницу авторизации                                                              2)Получаем код подтверждения на мобильное устройство                                                                                  3)Вводим код подтерждения пользователя и сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем                                                             4)Сайт перенаправляет на страницу учетной записи пользователя                                                                                5)Сайт открывает начальную страницу сайта с не авторизованным пользователем                                    8)Сайт перенаправляет на страницу авторизации                                                                   9)Сайт автоматически переходит на начальную страницу сайта с авторизованным пользователем </t>
-  </si>
-  <si>
-    <t>Поиск товара используя поле "Я ищу..." с использованием ввода текста</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поиск товара используя поле "Я ищу..." с использованием  файла изображения </t>
-  </si>
-  <si>
-    <t>Поиск товара используя "Каталог товаров"</t>
-  </si>
-  <si>
-    <t>Сайт полностью не локализирован для Беларуси</t>
-  </si>
-  <si>
-    <t>Сайт полностью не локализирован для Армении</t>
-  </si>
-  <si>
-    <t>Сайт полностью не локализирован для Израиля</t>
-  </si>
-  <si>
-    <t>Сайт полностью не локализирован для Казахстана</t>
-  </si>
-  <si>
-    <t>Сайт полностью не локализирован для Киргизии</t>
-  </si>
-  <si>
-    <t>Сайт полностью не локализирован для Узбекистана</t>
-  </si>
-  <si>
-    <t>Отсутствует подтверждение пользователя при повторной авторизации</t>
-  </si>
-  <si>
-    <t>Сортировка товара по Рейтингу</t>
-  </si>
-  <si>
-    <t>Сортировка товара по Цене (по возрастанию или убыванию)</t>
-  </si>
-  <si>
-    <t>Сортировка товара по Скидке</t>
-  </si>
-  <si>
-    <t>Сортировка товара по Обновлению</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Сроку доставки</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Бренду</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Цене</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Скидке</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Цвету</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Размеру</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Сезону</t>
-  </si>
-  <si>
-    <t>Фильтрация товара по Составу</t>
-  </si>
-  <si>
-    <t>Добавление товара в корзину</t>
-  </si>
-  <si>
-    <t>Добавление товара в корзину с последующей чисткой Cache</t>
-  </si>
-  <si>
-    <t>Оформление заказа для активации оплаты товара</t>
-  </si>
-  <si>
-    <t>Оформление заказа</t>
-  </si>
-  <si>
-    <t>Удаление товара из корзины</t>
-  </si>
-  <si>
-    <t>Создание отзыва</t>
-  </si>
-  <si>
-    <t>Создание отзыва авторизованным пользователем на товар который был заказан</t>
-  </si>
-  <si>
-    <t>Отсутствие создания отзыва</t>
-  </si>
-  <si>
-    <t>Отсутствие создания отзыва не авторизованным пользователем</t>
-  </si>
-  <si>
-    <t>Отсутсвие оздания отзыва авторизованным пользователем на товар который не был заказан</t>
-  </si>
-  <si>
-    <t>Отсутствие создания отзыва авторизованным пользователем на товар который не был заказан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поиск товара используя поле "Я ищу..." с использованием файла изображения </t>
-  </si>
-  <si>
-    <t>Cортировка товара по Популярности</t>
-  </si>
-  <si>
-    <t>Cортировка товара по Рейтингу</t>
-  </si>
-  <si>
-    <t>Cортировка товара по Цене (по возрастанию или убыванию)</t>
-  </si>
-  <si>
-    <t>Cортировка товара по Скидке</t>
-  </si>
-  <si>
-    <t>Cортировка товара по Обновлению</t>
+  </si>
+  <si>
+    <t>Локализация сайта для Киргизии</t>
+  </si>
+  <si>
+    <t>Локализация сайта для России</t>
+  </si>
+  <si>
+    <t>Локализация сайта для Узбекистана</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для Беларуси</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для Армении</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для Израиля</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для Казахстана</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для Киргизии</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для России</t>
+  </si>
+  <si>
+    <t>Сайт локализирован для Узбекистана</t>
+  </si>
+  <si>
+    <t>Поиск товара используя поле "Я ищу..." с помощью изображения</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для Беларуси</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для Армении</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для Израиля</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для Казахстана</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для Киргизии</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для России</t>
+  </si>
+  <si>
+    <t>1)Появляется pop-up                                              
+2)Сheckbox переходит в состояние включён и происходит обновление страницы с локализацией для Узбекистана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствие подтверждения пользователя </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1639,14 +1249,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF212529"/>
@@ -1659,14 +1261,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1729,12 +1323,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1749,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1779,7 +1373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1803,37 +1397,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1842,29 +1436,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1973,15 +1576,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1354931</xdr:colOff>
+      <xdr:colOff>1310769</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>546497</xdr:rowOff>
+      <xdr:rowOff>351667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1564481</xdr:colOff>
+      <xdr:colOff>1520319</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>756047</xdr:rowOff>
+      <xdr:rowOff>561217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2004,7 +1607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8946356" y="17710547"/>
+          <a:off x="10822780" y="14656485"/>
           <a:ext cx="209550" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2017,15 +1620,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>450606</xdr:rowOff>
+      <xdr:rowOff>422031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:colOff>1685925</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>809625</xdr:rowOff>
+      <xdr:rowOff>781050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2048,7 +1651,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="21234156"/>
+          <a:off x="11029950" y="19872081"/>
           <a:ext cx="333375" cy="359019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2702,15 +2305,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
+    <col min="2" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2730,7 +2332,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2738,16 +2340,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2755,41 +2357,41 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2805,13 +2407,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2819,13 +2421,13 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,13 +2435,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,13 +2449,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,13 +2463,13 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2875,13 +2477,13 @@
         <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,13 +2491,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2903,125 +2505,125 @@
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,13 +2631,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3043,13 +2645,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3057,13 +2659,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,27 +2673,27 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3105,7 +2707,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3119,12 +2721,12 @@
         <v>16</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -3133,54 +2735,54 @@
         <v>16</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>21</v>
@@ -3189,12 +2791,12 @@
         <v>22</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -3202,156 +2804,156 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>313</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>316</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3369,8 +2971,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,9 +2984,9 @@
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="9" width="50.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="31.28515625" customWidth="1"/>
   </cols>
@@ -3407,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -3424,7 +3028,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -3437,7 +3041,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>30</v>
       </c>
@@ -3454,17 +3058,17 @@
         <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="4" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
@@ -3484,22 +3088,22 @@
         <v>41</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
@@ -3508,28 +3112,28 @@
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>38</v>
@@ -3538,26 +3142,26 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="4" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3565,29 +3169,29 @@
         <v>23</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="4" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3598,452 +3202,452 @@
         <v>38</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="4" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="4" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="4" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="4" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>265</v>
+        <v>148</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="4" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="4" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="4" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="4" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="4" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="4" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="3" t="s">
-        <v>110</v>
+      <c r="H21" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="3" t="s">
-        <v>112</v>
+      <c r="H22" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -4051,29 +3655,29 @@
         <v>26</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="4" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -4084,26 +3688,26 @@
         <v>38</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="4" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -4111,100 +3715,100 @@
         <v>28</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="4" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="4" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="4" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>40</v>
@@ -4213,85 +3817,85 @@
         <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="4" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="4" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="4" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -4306,32 +3910,32 @@
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="G32" s="21"/>
       <c r="H32" s="23" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4339,97 +3943,97 @@
         <v>9</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="23" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="23" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="23" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -4444,244 +4048,244 @@
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="G37" s="21"/>
       <c r="H37" s="23" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="G38" s="21"/>
       <c r="H38" s="23" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>195</v>
+      <c r="F40" s="46" t="s">
+        <v>306</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>40</v>
@@ -4690,28 +4294,28 @@
         <v>41</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G44" s="21"/>
       <c r="H44" s="23" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>40</v>
@@ -4720,30 +4324,30 @@
         <v>41</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>40</v>
@@ -4752,30 +4356,30 @@
         <v>41</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>40</v>
@@ -4784,17 +4388,17 @@
         <v>41</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="4" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4811,24 +4415,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" customWidth="1"/>
-    <col min="11" max="11" width="49.28515625" customWidth="1"/>
+    <col min="9" max="11" width="45.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
@@ -4841,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4850,19 +4455,19 @@
         <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -4874,301 +4479,547 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="B3" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>239</v>
+      <c r="F3" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>227</v>
+        <v>200</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>288</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>228</v>
+      <c r="J4" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>265</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>229</v>
+        <v>201</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>289</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>230</v>
+        <v>202</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>290</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>231</v>
+        <v>202</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>239</v>
+      <c r="F8" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I15" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TD_Tarasevich(Wildberries).xlsx
+++ b/TD_Tarasevich(Wildberries).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -1184,6 +1184,18 @@
   </si>
   <si>
     <t xml:space="preserve">Отсутствие подтверждения пользователя </t>
+  </si>
+  <si>
+    <t>Локализация валюты для Израиля</t>
+  </si>
+  <si>
+    <t>Валюта не локализировано для Израиля</t>
+  </si>
+  <si>
+    <t>Валюта локализировано для Израиля</t>
+  </si>
+  <si>
+    <t>USA_1.3.3</t>
   </si>
 </sst>
 </file>
@@ -1439,6 +1451,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,15 +1480,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2331,12 +2343,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -2395,12 +2407,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2795,12 +2807,12 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
@@ -2972,7 +2984,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
@@ -3027,21 +3039,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>30</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
@@ -3320,7 +3332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>64</v>
       </c>
@@ -3590,7 +3602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>66</v>
       </c>
@@ -3620,7 +3632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>67</v>
       </c>
@@ -3894,19 +3906,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
@@ -4032,19 +4044,19 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
@@ -4161,7 +4173,7 @@
       <c r="E40" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="39" t="s">
         <v>306</v>
       </c>
       <c r="G40" s="21"/>
@@ -4415,12 +4427,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4507,10 +4519,10 @@
       <c r="I2" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="41" t="s">
         <v>258</v>
       </c>
       <c r="L2" s="37" t="s">
@@ -4548,10 +4560,10 @@
       <c r="I3" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="41" t="s">
         <v>288</v>
       </c>
       <c r="L3" s="37" t="s">
@@ -4589,10 +4601,10 @@
       <c r="I4" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="41" t="s">
         <v>265</v>
       </c>
       <c r="L4" s="37" t="s">
@@ -4630,10 +4642,10 @@
       <c r="I5" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="41" t="s">
         <v>289</v>
       </c>
       <c r="L5" s="37" t="s">
@@ -4671,10 +4683,10 @@
       <c r="I6" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="41" t="s">
         <v>290</v>
       </c>
       <c r="L6" s="37" t="s">
@@ -4712,10 +4724,10 @@
       <c r="I7" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="41" t="s">
         <v>291</v>
       </c>
       <c r="L7" s="37" t="s">
@@ -4727,7 +4739,7 @@
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>51</v>
@@ -4745,19 +4757,19 @@
         <v>138</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>292</v>
+        <v>202</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>328</v>
       </c>
       <c r="L8" s="37" t="s">
         <v>136</v>
@@ -4768,7 +4780,7 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>51</v>
@@ -4786,7 +4798,7 @@
         <v>138</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>139</v>
@@ -4794,11 +4806,11 @@
       <c r="I9" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>293</v>
+      <c r="J9" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>292</v>
       </c>
       <c r="L9" s="37" t="s">
         <v>136</v>
@@ -4809,7 +4821,7 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>51</v>
@@ -4827,19 +4839,19 @@
         <v>138</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>294</v>
+        <v>203</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>293</v>
       </c>
       <c r="L10" s="37" t="s">
         <v>136</v>
@@ -4850,7 +4862,7 @@
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>51</v>
@@ -4868,7 +4880,7 @@
         <v>138</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>139</v>
@@ -4876,11 +4888,11 @@
       <c r="I11" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="J11" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>296</v>
+      <c r="J11" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="L11" s="37" t="s">
         <v>136</v>
@@ -4891,7 +4903,7 @@
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>51</v>
@@ -4909,19 +4921,19 @@
         <v>138</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="J12" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="K12" s="48" t="s">
-        <v>299</v>
+        <v>204</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>296</v>
       </c>
       <c r="L12" s="37" t="s">
         <v>136</v>
@@ -4932,7 +4944,7 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>51</v>
@@ -4950,7 +4962,7 @@
         <v>138</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>139</v>
@@ -4958,11 +4970,11 @@
       <c r="I13" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="J13" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>300</v>
+      <c r="J13" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="L13" s="37" t="s">
         <v>136</v>
@@ -4971,46 +4983,84 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="38" t="s">
         <v>138</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>144</v>
+        <v>280</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>139</v>
       </c>
       <c r="I14" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J15" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K15" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L15" s="32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="18"/>
@@ -5020,6 +5070,9 @@
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
